--- a/Code/Results/Cases/Case_2_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01138972318693</v>
+        <v>1.032773962162504</v>
       </c>
       <c r="D2">
-        <v>1.03130524105593</v>
+        <v>1.04252438505094</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.035467739916365</v>
+        <v>1.051036308637997</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048518945557599</v>
+        <v>1.039173507926888</v>
       </c>
       <c r="J2">
-        <v>1.033235025614183</v>
+        <v>1.037902336002627</v>
       </c>
       <c r="K2">
-        <v>1.042345014296633</v>
+        <v>1.045300828908993</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.046454114647273</v>
+        <v>1.053788925128773</v>
       </c>
       <c r="N2">
-        <v>1.014996801603882</v>
+        <v>1.016624743186079</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014830775338846</v>
+        <v>1.033506138069271</v>
       </c>
       <c r="D3">
-        <v>1.033892561222793</v>
+        <v>1.04310179610213</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.038548990462962</v>
+        <v>1.051744122570948</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049417101582241</v>
+        <v>1.039323567396665</v>
       </c>
       <c r="J3">
-        <v>1.034925144345494</v>
+        <v>1.038278051018933</v>
       </c>
       <c r="K3">
-        <v>1.044109395944956</v>
+        <v>1.045689700825592</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.048711290432992</v>
+        <v>1.054309574758401</v>
       </c>
       <c r="N3">
-        <v>1.015559538717362</v>
+        <v>1.016749520146816</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017019285889684</v>
+        <v>1.033980567715573</v>
       </c>
       <c r="D4">
-        <v>1.035540961970284</v>
+        <v>1.043476017254895</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.040513418156913</v>
+        <v>1.052203080366978</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049980621375416</v>
+        <v>1.039419842561915</v>
       </c>
       <c r="J4">
-        <v>1.035997433434323</v>
+        <v>1.038521120052491</v>
       </c>
       <c r="K4">
-        <v>1.045228557802156</v>
+        <v>1.045941221735663</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.05014628560872</v>
+        <v>1.054646748097956</v>
       </c>
       <c r="N4">
-        <v>1.015916541062593</v>
+        <v>1.016830230077793</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017930465442603</v>
+        <v>1.034180174619826</v>
       </c>
       <c r="D5">
-        <v>1.03622792267998</v>
+        <v>1.043633480883893</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.041332413452798</v>
+        <v>1.052396252573717</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050213363973902</v>
+        <v>1.039460118741043</v>
       </c>
       <c r="J5">
-        <v>1.036443225539749</v>
+        <v>1.038623294481308</v>
       </c>
       <c r="K5">
-        <v>1.045693772906385</v>
+        <v>1.046046934484557</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.050743575438849</v>
+        <v>1.054788560581114</v>
       </c>
       <c r="N5">
-        <v>1.016064953954893</v>
+        <v>1.016864153099685</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018082943325754</v>
+        <v>1.034213698626695</v>
       </c>
       <c r="D6">
-        <v>1.036342917016706</v>
+        <v>1.043659927933213</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.041469529666586</v>
+        <v>1.052428700245145</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050252200273177</v>
+        <v>1.039466869660832</v>
       </c>
       <c r="J6">
-        <v>1.036517785971747</v>
+        <v>1.03864044928727</v>
       </c>
       <c r="K6">
-        <v>1.045771577998309</v>
+        <v>1.046064682515753</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.050843516044256</v>
+        <v>1.054812375269401</v>
       </c>
       <c r="N6">
-        <v>1.016089776146626</v>
+        <v>1.016869848474916</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017031495649368</v>
+        <v>1.033983234259671</v>
       </c>
       <c r="D7">
-        <v>1.035550164669367</v>
+        <v>1.043478120739887</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.040524388299127</v>
+        <v>1.052205660656885</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049983747560706</v>
+        <v>1.039420381512789</v>
       </c>
       <c r="J7">
-        <v>1.036003409628613</v>
+        <v>1.038522485360216</v>
       </c>
       <c r="K7">
-        <v>1.045234794636363</v>
+        <v>1.045942634381094</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.050154289955318</v>
+        <v>1.054648642750888</v>
       </c>
       <c r="N7">
-        <v>1.015918530682608</v>
+        <v>1.016830683388664</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012560678937283</v>
+        <v>1.033021265975224</v>
       </c>
       <c r="D8">
-        <v>1.032185060730023</v>
+        <v>1.042719398877259</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.036515247387439</v>
+        <v>1.051275318614051</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048826174723877</v>
+        <v>1.039224391231419</v>
       </c>
       <c r="J8">
-        <v>1.033810692439438</v>
+        <v>1.038029318901798</v>
       </c>
       <c r="K8">
-        <v>1.042946023156831</v>
+        <v>1.045432270909014</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.047222310179097</v>
+        <v>1.053964822424722</v>
       </c>
       <c r="N8">
-        <v>1.015188478368978</v>
+        <v>1.016666917891414</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004379340582236</v>
+        <v>1.031331320873087</v>
       </c>
       <c r="D9">
-        <v>1.026051322783617</v>
+        <v>1.041387099613741</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.029217653370821</v>
+        <v>1.049643349303587</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046648235571899</v>
+        <v>1.038872760451234</v>
       </c>
       <c r="J9">
-        <v>1.029778395225085</v>
+        <v>1.037160020665314</v>
       </c>
       <c r="K9">
-        <v>1.038735416606609</v>
+        <v>1.044532203546591</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.041853835775352</v>
+        <v>1.052762053750051</v>
       </c>
       <c r="N9">
-        <v>1.013845806721517</v>
+        <v>1.016378139794907</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9987043915559893</v>
+        <v>1.030208284571882</v>
       </c>
       <c r="D10">
-        <v>1.021815326692574</v>
+        <v>1.040502157149669</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.024183987269505</v>
+        <v>1.048560487666905</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045099006446956</v>
+        <v>1.038634171118656</v>
       </c>
       <c r="J10">
-        <v>1.026969507895265</v>
+        <v>1.036580382553114</v>
       </c>
       <c r="K10">
-        <v>1.035801561721499</v>
+        <v>1.043931746792809</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.038129902561697</v>
+        <v>1.051961801292344</v>
       </c>
       <c r="N10">
-        <v>1.012910476365928</v>
+        <v>1.016185512805927</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.996190734188712</v>
+        <v>1.029722875388648</v>
       </c>
       <c r="D11">
-        <v>1.019943986734025</v>
+        <v>1.040119765338063</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.021961549998049</v>
+        <v>1.048092839053954</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044404062550042</v>
+        <v>1.038529880556164</v>
       </c>
       <c r="J11">
-        <v>1.0257228462195</v>
+        <v>1.036329384592097</v>
       </c>
       <c r="K11">
-        <v>1.034499341031436</v>
+        <v>1.04367166312877</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.036480856769979</v>
+        <v>1.051615683849776</v>
       </c>
       <c r="N11">
-        <v>1.012495358701195</v>
+        <v>1.016102083409967</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9952482215943261</v>
+        <v>1.029542706031156</v>
       </c>
       <c r="D12">
-        <v>1.019243105140936</v>
+        <v>1.039977849383968</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.021129350813694</v>
+        <v>1.047919321808025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044142212071952</v>
+        <v>1.038490995996362</v>
       </c>
       <c r="J12">
-        <v>1.025255055635101</v>
+        <v>1.036236152514757</v>
       </c>
       <c r="K12">
-        <v>1.034010695911638</v>
+        <v>1.043575045662238</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.035862640749759</v>
+        <v>1.051487181944065</v>
       </c>
       <c r="N12">
-        <v>1.012339594584644</v>
+        <v>1.016071091395045</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.995450799232913</v>
+        <v>1.029581346907853</v>
       </c>
       <c r="D13">
-        <v>1.019393711698855</v>
+        <v>1.040008285311272</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.021308167162422</v>
+        <v>1.047956533289232</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044198549670972</v>
+        <v>1.038499343478496</v>
       </c>
       <c r="J13">
-        <v>1.02535561475103</v>
+        <v>1.03625615110159</v>
       </c>
       <c r="K13">
-        <v>1.034115738235031</v>
+        <v>1.043595770902133</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.035995510764537</v>
+        <v>1.051514743225225</v>
       </c>
       <c r="N13">
-        <v>1.012373078461016</v>
+        <v>1.016077739398459</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9961130080458633</v>
+        <v>1.029707979803579</v>
       </c>
       <c r="D14">
-        <v>1.019886170826386</v>
+        <v>1.040108032032659</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.021892898072317</v>
+        <v>1.048078492210133</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044382494301799</v>
+        <v>1.038526669328214</v>
       </c>
       <c r="J14">
-        <v>1.025684275835774</v>
+        <v>1.036321677996873</v>
       </c>
       <c r="K14">
-        <v>1.034459051240769</v>
+        <v>1.043663676910799</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.036429872012695</v>
+        <v>1.051605060576385</v>
       </c>
       <c r="N14">
-        <v>1.012482515544453</v>
+        <v>1.016099521651083</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9965198358316268</v>
+        <v>1.029786020225876</v>
       </c>
       <c r="D15">
-        <v>1.020188818598722</v>
+        <v>1.040169505427461</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.022252276219275</v>
+        <v>1.048153660143874</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044495333178087</v>
+        <v>1.038543486310543</v>
       </c>
       <c r="J15">
-        <v>1.025886143802058</v>
+        <v>1.036362051286319</v>
       </c>
       <c r="K15">
-        <v>1.034669917927247</v>
+        <v>1.043705514655716</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.036696736750167</v>
+        <v>1.05166071628518</v>
       </c>
       <c r="N15">
-        <v>1.012549733594259</v>
+        <v>1.016112942082601</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9988699968423991</v>
+        <v>1.030240518149868</v>
       </c>
       <c r="D16">
-        <v>1.02193872190456</v>
+        <v>1.040527552143911</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.024330559503742</v>
+        <v>1.048591550239625</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0451446115449</v>
+        <v>1.038641071964979</v>
       </c>
       <c r="J16">
-        <v>1.027051590999432</v>
+        <v>1.03659704034976</v>
       </c>
       <c r="K16">
-        <v>1.035887301599326</v>
+        <v>1.043949006090583</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.03823855767573</v>
+        <v>1.051984780493104</v>
       </c>
       <c r="N16">
-        <v>1.012937808943788</v>
+        <v>1.01619104934617</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000328851537085</v>
+        <v>1.030525847867635</v>
       </c>
       <c r="D17">
-        <v>1.02302630887834</v>
+        <v>1.040752359469397</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.02562257114642</v>
+        <v>1.048866560121927</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045545364941764</v>
+        <v>1.038702023112624</v>
       </c>
       <c r="J17">
-        <v>1.027774398328465</v>
+        <v>1.036744440847151</v>
       </c>
       <c r="K17">
-        <v>1.036642299798167</v>
+        <v>1.044101720956525</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.039195779224844</v>
+        <v>1.05218816504887</v>
       </c>
       <c r="N17">
-        <v>1.013178495169933</v>
+        <v>1.016240038781291</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001174363471524</v>
+        <v>1.030692359952043</v>
       </c>
       <c r="D18">
-        <v>1.023657112221503</v>
+        <v>1.040883562260003</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.026372065235792</v>
+        <v>1.049027087989808</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045776797234435</v>
+        <v>1.038737480294723</v>
       </c>
       <c r="J18">
-        <v>1.028193078065077</v>
+        <v>1.036830415926489</v>
       </c>
       <c r="K18">
-        <v>1.03707961628247</v>
+        <v>1.044190788949138</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.03975059666694</v>
+        <v>1.052306834014407</v>
       </c>
       <c r="N18">
-        <v>1.013317911188314</v>
+        <v>1.016268611466616</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001461753615768</v>
+        <v>1.030749150469308</v>
       </c>
       <c r="D19">
-        <v>1.023871600767343</v>
+        <v>1.040928311930067</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.0266269329458</v>
+        <v>1.049081844001271</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045855318862288</v>
+        <v>1.038749554208795</v>
       </c>
       <c r="J19">
-        <v>1.028335346167971</v>
+        <v>1.036859730972237</v>
       </c>
       <c r="K19">
-        <v>1.037228215351013</v>
+        <v>1.044221157429601</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.039939184842529</v>
+        <v>1.052347303487041</v>
       </c>
       <c r="N19">
-        <v>1.013365285068525</v>
+        <v>1.016278353656174</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000172892701702</v>
+        <v>1.030495225976734</v>
       </c>
       <c r="D20">
-        <v>1.022909991566222</v>
+        <v>1.040728231845105</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.025484377889232</v>
+        <v>1.048837041812167</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04550260856722</v>
+        <v>1.038695493409532</v>
       </c>
       <c r="J20">
-        <v>1.027697151251737</v>
+        <v>1.036728626276502</v>
       </c>
       <c r="K20">
-        <v>1.036561613390069</v>
+        <v>1.0440853369139</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.039093443225059</v>
+        <v>1.052166339846767</v>
       </c>
       <c r="N20">
-        <v>1.013152772737242</v>
+        <v>1.016234782884371</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9959182507457487</v>
+        <v>1.02967068587767</v>
       </c>
       <c r="D21">
-        <v>1.019741315212179</v>
+        <v>1.040078655741642</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.02172089608078</v>
+        <v>1.048042573131763</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044328430590005</v>
+        <v>1.038518626581487</v>
       </c>
       <c r="J21">
-        <v>1.02558762508278</v>
+        <v>1.036302381955591</v>
       </c>
       <c r="K21">
-        <v>1.034358091864303</v>
+        <v>1.043643680570267</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.03630212205142</v>
+        <v>1.051578462654335</v>
       </c>
       <c r="N21">
-        <v>1.012450332843555</v>
+        <v>1.016093107389153</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9931919183643894</v>
+        <v>1.02915303662362</v>
       </c>
       <c r="D22">
-        <v>1.017715477357435</v>
+        <v>1.039670944821178</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.019315822327778</v>
+        <v>1.047544149569335</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043568620570362</v>
+        <v>1.038406576752205</v>
       </c>
       <c r="J22">
-        <v>1.024233860791922</v>
+        <v>1.03603438441172</v>
       </c>
       <c r="K22">
-        <v>1.032943970976893</v>
+        <v>1.043365931872961</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.034514100988257</v>
+        <v>1.051209197802289</v>
       </c>
       <c r="N22">
-        <v>1.011999564598092</v>
+        <v>1.016004015444941</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9946421837025253</v>
+        <v>1.029427378433525</v>
       </c>
       <c r="D23">
-        <v>1.018792665000067</v>
+        <v>1.039887012729512</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.020594565110186</v>
+        <v>1.047808269192437</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043973486338594</v>
+        <v>1.038466056469375</v>
       </c>
       <c r="J23">
-        <v>1.024954171151511</v>
+        <v>1.036176454601674</v>
       </c>
       <c r="K23">
-        <v>1.033696396727226</v>
+        <v>1.043513177074102</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.035465160954303</v>
+        <v>1.051404917640856</v>
       </c>
       <c r="N23">
-        <v>1.012239407405533</v>
+        <v>1.016051246026679</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000243380489483</v>
+        <v>1.030509062431592</v>
       </c>
       <c r="D24">
-        <v>1.022962561363926</v>
+        <v>1.040739133843934</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.025546834170967</v>
+        <v>1.048850379497586</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04552193549646</v>
+        <v>1.038698444193671</v>
       </c>
       <c r="J24">
-        <v>1.02773206489796</v>
+        <v>1.036735772203947</v>
       </c>
       <c r="K24">
-        <v>1.036598081553671</v>
+        <v>1.044092740182457</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.039139695303128</v>
+        <v>1.05217620159838</v>
       </c>
       <c r="N24">
-        <v>1.013164398598092</v>
+        <v>1.016237157804268</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006532028230603</v>
+        <v>1.03176758758705</v>
       </c>
       <c r="D25">
-        <v>1.027662184662723</v>
+        <v>1.041730965614108</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.031133062899978</v>
+        <v>1.050064360245509</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047228094252068</v>
+        <v>1.038964403689816</v>
       </c>
       <c r="J25">
-        <v>1.030841545648644</v>
+        <v>1.037384779592364</v>
       </c>
       <c r="K25">
-        <v>1.03984573794702</v>
+        <v>1.044764971477386</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.043266564622528</v>
+        <v>1.053072725301116</v>
       </c>
       <c r="N25">
-        <v>1.014199823636475</v>
+        <v>1.016452816968958</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032773962162504</v>
+        <v>1.011389723186931</v>
       </c>
       <c r="D2">
-        <v>1.04252438505094</v>
+        <v>1.03130524105593</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.051036308637997</v>
+        <v>1.035467739916365</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039173507926888</v>
+        <v>1.048518945557599</v>
       </c>
       <c r="J2">
-        <v>1.037902336002627</v>
+        <v>1.033235025614183</v>
       </c>
       <c r="K2">
-        <v>1.045300828908993</v>
+        <v>1.042345014296634</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.053788925128773</v>
+        <v>1.046454114647273</v>
       </c>
       <c r="N2">
-        <v>1.016624743186079</v>
+        <v>1.014996801603882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033506138069271</v>
+        <v>1.014830775338846</v>
       </c>
       <c r="D3">
-        <v>1.04310179610213</v>
+        <v>1.033892561222793</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.051744122570948</v>
+        <v>1.038548990462961</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039323567396665</v>
+        <v>1.049417101582241</v>
       </c>
       <c r="J3">
-        <v>1.038278051018933</v>
+        <v>1.034925144345493</v>
       </c>
       <c r="K3">
-        <v>1.045689700825592</v>
+        <v>1.044109395944956</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.054309574758401</v>
+        <v>1.048711290432991</v>
       </c>
       <c r="N3">
-        <v>1.016749520146816</v>
+        <v>1.015559538717362</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033980567715573</v>
+        <v>1.017019285889684</v>
       </c>
       <c r="D4">
-        <v>1.043476017254895</v>
+        <v>1.035540961970283</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.052203080366978</v>
+        <v>1.040513418156913</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039419842561915</v>
+        <v>1.049980621375416</v>
       </c>
       <c r="J4">
-        <v>1.038521120052491</v>
+        <v>1.035997433434322</v>
       </c>
       <c r="K4">
-        <v>1.045941221735663</v>
+        <v>1.045228557802156</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.054646748097956</v>
+        <v>1.05014628560872</v>
       </c>
       <c r="N4">
-        <v>1.016830230077793</v>
+        <v>1.015916541062593</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034180174619826</v>
+        <v>1.017930465442603</v>
       </c>
       <c r="D5">
-        <v>1.043633480883893</v>
+        <v>1.03622792267998</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.052396252573717</v>
+        <v>1.041332413452798</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039460118741043</v>
+        <v>1.050213363973902</v>
       </c>
       <c r="J5">
-        <v>1.038623294481308</v>
+        <v>1.03644322553975</v>
       </c>
       <c r="K5">
-        <v>1.046046934484557</v>
+        <v>1.045693772906385</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.054788560581114</v>
+        <v>1.050743575438849</v>
       </c>
       <c r="N5">
-        <v>1.016864153099685</v>
+        <v>1.016064953954893</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034213698626695</v>
+        <v>1.018082943325754</v>
       </c>
       <c r="D6">
-        <v>1.043659927933213</v>
+        <v>1.036342917016706</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.052428700245145</v>
+        <v>1.041469529666585</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039466869660832</v>
+        <v>1.050252200273176</v>
       </c>
       <c r="J6">
-        <v>1.03864044928727</v>
+        <v>1.036517785971747</v>
       </c>
       <c r="K6">
-        <v>1.046064682515753</v>
+        <v>1.045771577998309</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.054812375269401</v>
+        <v>1.050843516044256</v>
       </c>
       <c r="N6">
-        <v>1.016869848474916</v>
+        <v>1.016089776146626</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033983234259671</v>
+        <v>1.017031495649368</v>
       </c>
       <c r="D7">
-        <v>1.043478120739887</v>
+        <v>1.035550164669368</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.052205660656885</v>
+        <v>1.040524388299128</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039420381512789</v>
+        <v>1.049983747560707</v>
       </c>
       <c r="J7">
-        <v>1.038522485360216</v>
+        <v>1.036003409628613</v>
       </c>
       <c r="K7">
-        <v>1.045942634381094</v>
+        <v>1.045234794636363</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.054648642750888</v>
+        <v>1.050154289955318</v>
       </c>
       <c r="N7">
-        <v>1.016830683388664</v>
+        <v>1.015918530682608</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033021265975224</v>
+        <v>1.012560678937283</v>
       </c>
       <c r="D8">
-        <v>1.042719398877259</v>
+        <v>1.032185060730023</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.051275318614051</v>
+        <v>1.036515247387438</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039224391231419</v>
+        <v>1.048826174723877</v>
       </c>
       <c r="J8">
-        <v>1.038029318901798</v>
+        <v>1.033810692439437</v>
       </c>
       <c r="K8">
-        <v>1.045432270909014</v>
+        <v>1.04294602315683</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.053964822424722</v>
+        <v>1.047222310179097</v>
       </c>
       <c r="N8">
-        <v>1.016666917891414</v>
+        <v>1.015188478368978</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031331320873087</v>
+        <v>1.004379340582237</v>
       </c>
       <c r="D9">
-        <v>1.041387099613741</v>
+        <v>1.026051322783618</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.049643349303587</v>
+        <v>1.029217653370821</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038872760451234</v>
+        <v>1.046648235571899</v>
       </c>
       <c r="J9">
-        <v>1.037160020665314</v>
+        <v>1.029778395225085</v>
       </c>
       <c r="K9">
-        <v>1.044532203546591</v>
+        <v>1.03873541660661</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.052762053750051</v>
+        <v>1.041853835775353</v>
       </c>
       <c r="N9">
-        <v>1.016378139794907</v>
+        <v>1.013845806721518</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030208284571882</v>
+        <v>0.9987043915559887</v>
       </c>
       <c r="D10">
-        <v>1.040502157149669</v>
+        <v>1.021815326692574</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.048560487666905</v>
+        <v>1.024183987269504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038634171118656</v>
+        <v>1.045099006446955</v>
       </c>
       <c r="J10">
-        <v>1.036580382553114</v>
+        <v>1.026969507895265</v>
       </c>
       <c r="K10">
-        <v>1.043931746792809</v>
+        <v>1.035801561721499</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.051961801292344</v>
+        <v>1.038129902561696</v>
       </c>
       <c r="N10">
-        <v>1.016185512805927</v>
+        <v>1.012910476365928</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029722875388648</v>
+        <v>0.9961907341887122</v>
       </c>
       <c r="D11">
-        <v>1.040119765338063</v>
+        <v>1.019943986734025</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.048092839053954</v>
+        <v>1.021961549998049</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038529880556164</v>
+        <v>1.044404062550043</v>
       </c>
       <c r="J11">
-        <v>1.036329384592097</v>
+        <v>1.0257228462195</v>
       </c>
       <c r="K11">
-        <v>1.04367166312877</v>
+        <v>1.034499341031436</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.051615683849776</v>
+        <v>1.036480856769979</v>
       </c>
       <c r="N11">
-        <v>1.016102083409967</v>
+        <v>1.012495358701195</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029542706031156</v>
+        <v>0.9952482215943251</v>
       </c>
       <c r="D12">
-        <v>1.039977849383968</v>
+        <v>1.019243105140935</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.047919321808025</v>
+        <v>1.021129350813693</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038490995996362</v>
+        <v>1.044142212071951</v>
       </c>
       <c r="J12">
-        <v>1.036236152514757</v>
+        <v>1.025255055635099</v>
       </c>
       <c r="K12">
-        <v>1.043575045662238</v>
+        <v>1.034010695911636</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.051487181944065</v>
+        <v>1.035862640749758</v>
       </c>
       <c r="N12">
-        <v>1.016071091395045</v>
+        <v>1.012339594584644</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029581346907853</v>
+        <v>0.9954507992329136</v>
       </c>
       <c r="D13">
-        <v>1.040008285311272</v>
+        <v>1.019393711698856</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.047956533289232</v>
+        <v>1.021308167162422</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038499343478496</v>
+        <v>1.044198549670973</v>
       </c>
       <c r="J13">
-        <v>1.03625615110159</v>
+        <v>1.02535561475103</v>
       </c>
       <c r="K13">
-        <v>1.043595770902133</v>
+        <v>1.034115738235031</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.051514743225225</v>
+        <v>1.035995510764537</v>
       </c>
       <c r="N13">
-        <v>1.016077739398459</v>
+        <v>1.012373078461016</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029707979803579</v>
+        <v>0.9961130080458636</v>
       </c>
       <c r="D14">
-        <v>1.040108032032659</v>
+        <v>1.019886170826386</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.048078492210133</v>
+        <v>1.021892898072317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038526669328214</v>
+        <v>1.044382494301799</v>
       </c>
       <c r="J14">
-        <v>1.036321677996873</v>
+        <v>1.025684275835774</v>
       </c>
       <c r="K14">
-        <v>1.043663676910799</v>
+        <v>1.034459051240769</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.051605060576385</v>
+        <v>1.036429872012695</v>
       </c>
       <c r="N14">
-        <v>1.016099521651083</v>
+        <v>1.012482515544453</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029786020225876</v>
+        <v>0.9965198358316266</v>
       </c>
       <c r="D15">
-        <v>1.040169505427461</v>
+        <v>1.020188818598721</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.048153660143874</v>
+        <v>1.022252276219274</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038543486310543</v>
+        <v>1.044495333178087</v>
       </c>
       <c r="J15">
-        <v>1.036362051286319</v>
+        <v>1.025886143802058</v>
       </c>
       <c r="K15">
-        <v>1.043705514655716</v>
+        <v>1.034669917927247</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.05166071628518</v>
+        <v>1.036696736750167</v>
       </c>
       <c r="N15">
-        <v>1.016112942082601</v>
+        <v>1.012549733594259</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030240518149868</v>
+        <v>0.9988699968423991</v>
       </c>
       <c r="D16">
-        <v>1.040527552143911</v>
+        <v>1.02193872190456</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.048591550239625</v>
+        <v>1.024330559503742</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038641071964979</v>
+        <v>1.0451446115449</v>
       </c>
       <c r="J16">
-        <v>1.03659704034976</v>
+        <v>1.027051590999432</v>
       </c>
       <c r="K16">
-        <v>1.043949006090583</v>
+        <v>1.035887301599326</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.051984780493104</v>
+        <v>1.03823855767573</v>
       </c>
       <c r="N16">
-        <v>1.01619104934617</v>
+        <v>1.012937808943788</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030525847867635</v>
+        <v>1.000328851537085</v>
       </c>
       <c r="D17">
-        <v>1.040752359469397</v>
+        <v>1.02302630887834</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.048866560121927</v>
+        <v>1.02562257114642</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038702023112624</v>
+        <v>1.045545364941764</v>
       </c>
       <c r="J17">
-        <v>1.036744440847151</v>
+        <v>1.027774398328465</v>
       </c>
       <c r="K17">
-        <v>1.044101720956525</v>
+        <v>1.036642299798167</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.05218816504887</v>
+        <v>1.039195779224844</v>
       </c>
       <c r="N17">
-        <v>1.016240038781291</v>
+        <v>1.013178495169933</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030692359952043</v>
+        <v>1.001174363471524</v>
       </c>
       <c r="D18">
-        <v>1.040883562260003</v>
+        <v>1.023657112221502</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.049027087989808</v>
+        <v>1.026372065235792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038737480294723</v>
+        <v>1.045776797234435</v>
       </c>
       <c r="J18">
-        <v>1.036830415926489</v>
+        <v>1.028193078065077</v>
       </c>
       <c r="K18">
-        <v>1.044190788949138</v>
+        <v>1.03707961628247</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.052306834014407</v>
+        <v>1.03975059666694</v>
       </c>
       <c r="N18">
-        <v>1.016268611466616</v>
+        <v>1.013317911188314</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030749150469308</v>
+        <v>1.001461753615768</v>
       </c>
       <c r="D19">
-        <v>1.040928311930067</v>
+        <v>1.023871600767343</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.049081844001271</v>
+        <v>1.0266269329458</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038749554208795</v>
+        <v>1.045855318862287</v>
       </c>
       <c r="J19">
-        <v>1.036859730972237</v>
+        <v>1.02833534616797</v>
       </c>
       <c r="K19">
-        <v>1.044221157429601</v>
+        <v>1.037228215351012</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.052347303487041</v>
+        <v>1.039939184842529</v>
       </c>
       <c r="N19">
-        <v>1.016278353656174</v>
+        <v>1.013365285068525</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030495225976734</v>
+        <v>1.000172892701703</v>
       </c>
       <c r="D20">
-        <v>1.040728231845105</v>
+        <v>1.022909991566222</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.048837041812167</v>
+        <v>1.025484377889232</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038695493409532</v>
+        <v>1.045502608567221</v>
       </c>
       <c r="J20">
-        <v>1.036728626276502</v>
+        <v>1.027697151251737</v>
       </c>
       <c r="K20">
-        <v>1.0440853369139</v>
+        <v>1.036561613390069</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.052166339846767</v>
+        <v>1.039093443225059</v>
       </c>
       <c r="N20">
-        <v>1.016234782884371</v>
+        <v>1.013152772737242</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02967068587767</v>
+        <v>0.9959182507457491</v>
       </c>
       <c r="D21">
-        <v>1.040078655741642</v>
+        <v>1.019741315212179</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.048042573131763</v>
+        <v>1.02172089608078</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038518626581487</v>
+        <v>1.044328430590005</v>
       </c>
       <c r="J21">
-        <v>1.036302381955591</v>
+        <v>1.02558762508278</v>
       </c>
       <c r="K21">
-        <v>1.043643680570267</v>
+        <v>1.034358091864303</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.051578462654335</v>
+        <v>1.03630212205142</v>
       </c>
       <c r="N21">
-        <v>1.016093107389153</v>
+        <v>1.012450332843555</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02915303662362</v>
+        <v>0.9931919183643887</v>
       </c>
       <c r="D22">
-        <v>1.039670944821178</v>
+        <v>1.017715477357434</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.047544149569335</v>
+        <v>1.019315822327778</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038406576752205</v>
+        <v>1.043568620570361</v>
       </c>
       <c r="J22">
-        <v>1.03603438441172</v>
+        <v>1.024233860791921</v>
       </c>
       <c r="K22">
-        <v>1.043365931872961</v>
+        <v>1.032943970976892</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.051209197802289</v>
+        <v>1.034514100988257</v>
       </c>
       <c r="N22">
-        <v>1.016004015444941</v>
+        <v>1.011999564598091</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029427378433525</v>
+        <v>0.9946421837025248</v>
       </c>
       <c r="D23">
-        <v>1.039887012729512</v>
+        <v>1.018792665000067</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.047808269192437</v>
+        <v>1.020594565110186</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038466056469375</v>
+        <v>1.043973486338594</v>
       </c>
       <c r="J23">
-        <v>1.036176454601674</v>
+        <v>1.024954171151511</v>
       </c>
       <c r="K23">
-        <v>1.043513177074102</v>
+        <v>1.033696396727226</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.051404917640856</v>
+        <v>1.035465160954303</v>
       </c>
       <c r="N23">
-        <v>1.016051246026679</v>
+        <v>1.012239407405533</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030509062431592</v>
+        <v>1.000243380489484</v>
       </c>
       <c r="D24">
-        <v>1.040739133843934</v>
+        <v>1.022962561363927</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.048850379497586</v>
+        <v>1.025546834170968</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038698444193671</v>
+        <v>1.045521935496461</v>
       </c>
       <c r="J24">
-        <v>1.036735772203947</v>
+        <v>1.02773206489796</v>
       </c>
       <c r="K24">
-        <v>1.044092740182457</v>
+        <v>1.036598081553671</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.05217620159838</v>
+        <v>1.039139695303129</v>
       </c>
       <c r="N24">
-        <v>1.016237157804268</v>
+        <v>1.013164398598092</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03176758758705</v>
+        <v>1.006532028230603</v>
       </c>
       <c r="D25">
-        <v>1.041730965614108</v>
+        <v>1.027662184662722</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.050064360245509</v>
+        <v>1.031133062899978</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038964403689816</v>
+        <v>1.047228094252068</v>
       </c>
       <c r="J25">
-        <v>1.037384779592364</v>
+        <v>1.030841545648644</v>
       </c>
       <c r="K25">
-        <v>1.044764971477386</v>
+        <v>1.039845737947019</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.053072725301116</v>
+        <v>1.043266564622527</v>
       </c>
       <c r="N25">
-        <v>1.016452816968958</v>
+        <v>1.014199823636475</v>
       </c>
     </row>
   </sheetData>
